--- a/tasks/AnalyticalCase/output/WeeklyEffortPerProject.xlsx
+++ b/tasks/AnalyticalCase/output/WeeklyEffortPerProject.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
   <si>
     <t>Project_Week</t>
   </si>
@@ -29,12 +29,6 @@
     <t>PRJ117_W14_2025</t>
   </si>
   <si>
-    <t>PRJ160_W22_2025</t>
-  </si>
-  <si>
-    <t>PRJ136_W13_2025</t>
-  </si>
-  <si>
     <t>PRJ110_W16_2025</t>
   </si>
   <si>
@@ -50,6 +44,9 @@
     <t>PRJ192_W11_2025</t>
   </si>
   <si>
+    <t>PRJ107_W16_2025</t>
+  </si>
+  <si>
     <t>PRJ188_W12_2025</t>
   </si>
   <si>
@@ -83,18 +80,12 @@
     <t>PRJ159_W15_2025</t>
   </si>
   <si>
-    <t>PRJ157_W19_2025</t>
-  </si>
-  <si>
     <t>PRJ143_W16_2025</t>
   </si>
   <si>
     <t>PRJ185_W22_2025</t>
   </si>
   <si>
-    <t>PRJ195_W15_2025</t>
-  </si>
-  <si>
     <t>PRJ129_W19_2025</t>
   </si>
   <si>
@@ -122,15 +113,15 @@
     <t>PRJ110_W14_2025</t>
   </si>
   <si>
+    <t>PRJ180_W20_2025</t>
+  </si>
+  <si>
     <t>PRJ124_W19_2025</t>
   </si>
   <si>
     <t>PRJ147_W10_2025</t>
   </si>
   <si>
-    <t>PRJ126_W15_2025</t>
-  </si>
-  <si>
     <t>PRJ139_W22_2025</t>
   </si>
   <si>
@@ -143,9 +134,6 @@
     <t>PRJ161_W18_2025</t>
   </si>
   <si>
-    <t>PRJ159_W13_2025</t>
-  </si>
-  <si>
     <t>PRJ169_W11_2025</t>
   </si>
   <si>
@@ -161,6 +149,9 @@
     <t>PRJ106_W19_2025</t>
   </si>
   <si>
+    <t>PRJ143_W14_2025</t>
+  </si>
+  <si>
     <t>PRJ193_W20_2025</t>
   </si>
   <si>
@@ -176,9 +167,6 @@
     <t>PRJ111_W17_2025</t>
   </si>
   <si>
-    <t>PRJ183_W19_2025</t>
-  </si>
-  <si>
     <t>PRJ105_W11_2025</t>
   </si>
   <si>
@@ -194,9 +182,6 @@
     <t>PRJ196_W12_2025</t>
   </si>
   <si>
-    <t>PRJ191_W16_2025</t>
-  </si>
-  <si>
     <t>PRJ157_W10_2025</t>
   </si>
   <si>
@@ -212,15 +197,15 @@
     <t>PRJ106_W15_2025</t>
   </si>
   <si>
+    <t>PRJ111_W20_2025</t>
+  </si>
+  <si>
+    <t>PRJ153_W18_2025</t>
+  </si>
+  <si>
     <t>PRJ131_W13_2025</t>
   </si>
   <si>
-    <t>PRJ111_W20_2025</t>
-  </si>
-  <si>
-    <t>PRJ153_W18_2025</t>
-  </si>
-  <si>
     <t>PRJ128_W21_2025</t>
   </si>
   <si>
@@ -233,9 +218,6 @@
     <t>PRJ199_W21_2025</t>
   </si>
   <si>
-    <t>PRJ181_W12_2025</t>
-  </si>
-  <si>
     <t>PRJ180_W22_2025</t>
   </si>
   <si>
@@ -257,16 +239,13 @@
     <t>PRJ130_W14_2025</t>
   </si>
   <si>
-    <t>PRJ152_W13_2025</t>
-  </si>
-  <si>
     <t>PRJ188_W22_2025</t>
   </si>
   <si>
-    <t>PRJ183_W12_2025</t>
-  </si>
-  <si>
-    <t>PRJ155_W19_2025</t>
+    <t>PRJ107_W14_2025</t>
+  </si>
+  <si>
+    <t>PRJ138_W13_2025</t>
   </si>
   <si>
     <t>PRJ173_W14_2025</t>
@@ -275,6 +254,9 @@
     <t>PRJ165_W20_2025</t>
   </si>
   <si>
+    <t>PRJ118_W17_2025</t>
+  </si>
+  <si>
     <t>PRJ175_W15_2025</t>
   </si>
   <si>
@@ -299,12 +281,6 @@
     <t>PRJ191_W19_2025</t>
   </si>
   <si>
-    <t>PRJ148_W11_2025</t>
-  </si>
-  <si>
-    <t>PRJ160_W17_2025</t>
-  </si>
-  <si>
     <t>PRJ153_W12_2025</t>
   </si>
   <si>
@@ -320,24 +296,18 @@
     <t>PRJ117_W18_2025</t>
   </si>
   <si>
+    <t>PRJ110_W21_2025</t>
+  </si>
+  <si>
     <t>PRJ195_W17_2025</t>
   </si>
   <si>
-    <t>PRJ175_W14_2025</t>
-  </si>
-  <si>
-    <t>PRJ113_W16_2025</t>
-  </si>
-  <si>
     <t>PRJ118_W18_2025</t>
   </si>
   <si>
     <t>PRJ108_W22_2025</t>
   </si>
   <si>
-    <t>PRJ136_W21_2025</t>
-  </si>
-  <si>
     <t>PRJ160_W14_2025</t>
   </si>
   <si>
@@ -353,7 +323,7 @@
     <t>PRJ124_W12_2025</t>
   </si>
   <si>
-    <t>PRJ138_W14_2025</t>
+    <t>PRJ152_W12_2025</t>
   </si>
   <si>
     <t>PRJ105_W13_2025</t>
@@ -362,24 +332,36 @@
     <t>PRJ166_W13_2025</t>
   </si>
   <si>
-    <t>PRJ130_W18_2025</t>
-  </si>
-  <si>
     <t>PRJ178_W19_2025</t>
   </si>
   <si>
     <t>PRJ141_W14_2025</t>
   </si>
   <si>
+    <t>PRJ175_W13_2025</t>
+  </si>
+  <si>
     <t>PRJ192_W20_2025</t>
   </si>
   <si>
+    <t>PRJ197_W18_2025</t>
+  </si>
+  <si>
+    <t>PRJ129_W14_2025</t>
+  </si>
+  <si>
+    <t>PRJ136_W20_2025</t>
+  </si>
+  <si>
     <t>PRJ113_W15_2025</t>
   </si>
   <si>
     <t>PRJ147_W14_2025</t>
   </si>
   <si>
+    <t>PRJ171_W11_2025</t>
+  </si>
+  <si>
     <t>PRJ136_W18_2025</t>
   </si>
   <si>
@@ -395,9 +377,6 @@
     <t>PRJ102_W18_2025</t>
   </si>
   <si>
-    <t>PRJ174_W20_2025</t>
-  </si>
-  <si>
     <t>PRJ137_W18_2025</t>
   </si>
   <si>
@@ -419,18 +398,24 @@
     <t>PRJ102_W23_2025</t>
   </si>
   <si>
-    <t>PRJ119_W15_2025</t>
+    <t>PRJ155_W18_2025</t>
   </si>
   <si>
     <t>PRJ143_W23_2025</t>
   </si>
   <si>
+    <t>PRJ162_W12_2025</t>
+  </si>
+  <si>
     <t>PRJ183_W21_2025</t>
   </si>
   <si>
     <t>PRJ153_W19_2025</t>
   </si>
   <si>
+    <t>PRJ160_W16_2025</t>
+  </si>
+  <si>
     <t>PRJ149_W12_2025</t>
   </si>
   <si>
@@ -458,6 +443,9 @@
     <t>PRJ171_W19_2025</t>
   </si>
   <si>
+    <t>PRJ140_W22_2025</t>
+  </si>
+  <si>
     <t>PRJ126_W20_2025</t>
   </si>
   <si>
@@ -467,21 +455,21 @@
     <t>PRJ101_W21_2025</t>
   </si>
   <si>
-    <t>PRJ148_W16_2025</t>
-  </si>
-  <si>
     <t>PRJ114_W17_2025</t>
   </si>
   <si>
-    <t>PRJ137_W22_2025</t>
-  </si>
-  <si>
     <t>PRJ179_W15_2025</t>
   </si>
   <si>
+    <t>PRJ145_W10_2025</t>
+  </si>
+  <si>
     <t>PRJ168_W21_2025</t>
   </si>
   <si>
+    <t>PRJ148_W10_2025</t>
+  </si>
+  <si>
     <t>PRJ114_W11_2025</t>
   </si>
   <si>
@@ -491,10 +479,19 @@
     <t>PRJ162_W13_2025</t>
   </si>
   <si>
-    <t>PRJ137_W13_2025</t>
-  </si>
-  <si>
-    <t>PRJ140_W23_2025</t>
+    <t>PRJ159_W12_2025</t>
+  </si>
+  <si>
+    <t>PRJ190_W18_2025</t>
+  </si>
+  <si>
+    <t>PRJ123_W11_2025</t>
+  </si>
+  <si>
+    <t>PRJ165_W12_2025</t>
+  </si>
+  <si>
+    <t>PRJ168_W12_2025</t>
   </si>
   <si>
     <t>PRJ196_W17_2025</t>
@@ -503,18 +500,18 @@
     <t>PRJ165_W18_2025</t>
   </si>
   <si>
+    <t>PRJ171_W18_2025</t>
+  </si>
+  <si>
+    <t>PRJ148_W15_2025</t>
+  </si>
+  <si>
     <t>PRJ128_W13_2025</t>
   </si>
   <si>
-    <t>PRJ154_W15_2025</t>
-  </si>
-  <si>
     <t>PRJ105_W18_2025</t>
   </si>
   <si>
-    <t>PRJ124_W22_2025</t>
-  </si>
-  <si>
     <t>PRJ198_W15_2025</t>
   </si>
   <si>
@@ -539,9 +536,6 @@
     <t>PRJ142_W17_2025</t>
   </si>
   <si>
-    <t>PRJ171_W12_2025</t>
-  </si>
-  <si>
     <t>PRJ136_W11_2025</t>
   </si>
   <si>
@@ -551,12 +545,12 @@
     <t>PRJ121_W13_2025</t>
   </si>
   <si>
+    <t>PRJ119_W14_2025</t>
+  </si>
+  <si>
     <t>PRJ180_W21_2025</t>
   </si>
   <si>
-    <t>PRJ129_W15_2025</t>
-  </si>
-  <si>
     <t>PRJ193_W18_2025</t>
   </si>
   <si>
@@ -569,18 +563,12 @@
     <t>PRJ109_W13_2025</t>
   </si>
   <si>
-    <t>PRJ131_W14_2025</t>
-  </si>
-  <si>
-    <t>PRJ197_W19_2025</t>
+    <t>PRJ190_W22_2025</t>
   </si>
   <si>
     <t>PRJ117_W20_2025</t>
   </si>
   <si>
-    <t>PRJ190_W22_2025</t>
-  </si>
-  <si>
     <t>PRJ162_W19_2025</t>
   </si>
   <si>
@@ -593,12 +581,12 @@
     <t>PRJ100_W20_2025</t>
   </si>
   <si>
-    <t>PRJ143_W17_2025</t>
-  </si>
-  <si>
     <t>PRJ148_W19_2025</t>
   </si>
   <si>
+    <t>PRJ126_W14_2025</t>
+  </si>
+  <si>
     <t>PRJ151_W22_2025</t>
   </si>
   <si>
@@ -611,7 +599,7 @@
     <t>PRJ147_W23_2025</t>
   </si>
   <si>
-    <t>PRJ107_W15_2025</t>
+    <t>PRJ136_W12_2025</t>
   </si>
   <si>
     <t>PRJ170_W21_2025</t>
@@ -620,6 +608,9 @@
     <t>PRJ134_W16_2025</t>
   </si>
   <si>
+    <t>PRJ183_W11_2025</t>
+  </si>
+  <si>
     <t>PRJ199_W22_2025</t>
   </si>
   <si>
@@ -659,6 +650,9 @@
     <t>PRJ180_W18_2025</t>
   </si>
   <si>
+    <t>PRJ125_W20_2025</t>
+  </si>
+  <si>
     <t>PRJ141_W19_2025</t>
   </si>
   <si>
@@ -668,7 +662,7 @@
     <t>PRJ143_W15_2025</t>
   </si>
   <si>
-    <t>PRJ145_W11_2025</t>
+    <t>PRJ166_W10_2025</t>
   </si>
   <si>
     <t>PRJ159_W16_2025</t>
@@ -677,6 +671,9 @@
     <t>PRJ191_W15_2025</t>
   </si>
   <si>
+    <t>PRJ160_W21_2025</t>
+  </si>
+  <si>
     <t>PRJ188_W13_2025</t>
   </si>
   <si>
@@ -689,6 +686,9 @@
     <t>PRJ194_W19_2025</t>
   </si>
   <si>
+    <t>PRJ124_W21_2025</t>
+  </si>
+  <si>
     <t>PRJ196_W15_2025</t>
   </si>
   <si>
@@ -713,6 +713,9 @@
     <t>PRJ115_W15_2025</t>
   </si>
   <si>
+    <t>PRJ174_W19_2025</t>
+  </si>
+  <si>
     <t>PRJ195_W14_2025</t>
   </si>
   <si>
@@ -731,6 +734,9 @@
     <t>PRJ122_W13_2025</t>
   </si>
   <si>
+    <t>PRJ182_W16_2025</t>
+  </si>
+  <si>
     <t>PRJ108_W16_2025</t>
   </si>
   <si>
@@ -746,12 +752,18 @@
     <t>PRJ134_W21_2025</t>
   </si>
   <si>
+    <t>PRJ190_W21_2025</t>
+  </si>
+  <si>
     <t>PRJ132_W21_2025</t>
   </si>
   <si>
     <t>PRJ167_W14_2025</t>
   </si>
   <si>
+    <t>PRJ137_W21_2025</t>
+  </si>
+  <si>
     <t>PRJ196_W13_2025</t>
   </si>
   <si>
@@ -767,6 +779,9 @@
     <t>PRJ163_W20_2025</t>
   </si>
   <si>
+    <t>PRJ135_W17_2025</t>
+  </si>
+  <si>
     <t>PRJ183_W18_2025</t>
   </si>
   <si>
@@ -776,6 +791,9 @@
     <t>PRJ134_W12_2025</t>
   </si>
   <si>
+    <t>PRJ130_W17_2025</t>
+  </si>
+  <si>
     <t>PRJ120_W19_2025</t>
   </si>
   <si>
@@ -791,9 +809,6 @@
     <t>PRJ140_W21_2025</t>
   </si>
   <si>
-    <t>PRJ171_W20_2025</t>
-  </si>
-  <si>
     <t>PRJ169_W12_2025</t>
   </si>
   <si>
@@ -812,7 +827,7 @@
     <t>PRJ179_W16_2025</t>
   </si>
   <si>
-    <t>PRJ123_W12_2025</t>
+    <t>PRJ154_W14_2025</t>
   </si>
   <si>
     <t>PRJ176_W20_2025</t>
@@ -830,9 +845,6 @@
     <t>PRJ127_W13_2025</t>
   </si>
   <si>
-    <t>PRJ107_W17_2025</t>
-  </si>
-  <si>
     <t>PRJ133_W13_2025</t>
   </si>
   <si>
@@ -842,48 +854,45 @@
     <t>PRJ106_W12_2025</t>
   </si>
   <si>
+    <t>PRJ182_W18_2025</t>
+  </si>
+  <si>
     <t>PRJ193_W15_2025</t>
   </si>
   <si>
     <t>PRJ179_W20_2025</t>
   </si>
   <si>
+    <t>PRJ105_W14_2025</t>
+  </si>
+  <si>
     <t>PRJ139_W13_2025</t>
   </si>
   <si>
-    <t>PRJ112_W18_2025</t>
-  </si>
-  <si>
     <t>PRJ137_W16_2025</t>
   </si>
   <si>
     <t>PRJ106_W11_2025</t>
   </si>
   <si>
-    <t>PRJ163_W19_2025</t>
-  </si>
-  <si>
     <t>PRJ101_W23_2025</t>
   </si>
   <si>
     <t>PRJ140_W20_2025</t>
   </si>
   <si>
-    <t>PRJ182_W17_2025</t>
-  </si>
-  <si>
     <t>PRJ169_W21_2025</t>
   </si>
   <si>
-    <t>PRJ110_W23_2025</t>
-  </si>
-  <si>
     <t>PRJ112_W17_2025</t>
   </si>
   <si>
     <t>PRJ195_W12_2025</t>
   </si>
   <si>
+    <t>PRJ153_W11_2025</t>
+  </si>
+  <si>
     <t>PRJ180_W23_2025</t>
   </si>
   <si>
@@ -902,12 +911,12 @@
     <t>PRJ137_W15_2025</t>
   </si>
   <si>
-    <t>PRJ121_W17_2025</t>
-  </si>
-  <si>
     <t>PRJ125_W12_2025</t>
   </si>
   <si>
+    <t>PRJ166_W12_2025</t>
+  </si>
+  <si>
     <t>PRJ104_W14_2025</t>
   </si>
   <si>
@@ -929,9 +938,6 @@
     <t>PRJ112_W21_2025</t>
   </si>
   <si>
-    <t>PRJ182_W19_2025</t>
-  </si>
-  <si>
     <t>PRJ195_W13_2025</t>
   </si>
   <si>
@@ -944,12 +950,12 @@
     <t>PRJ112_W16_2025</t>
   </si>
   <si>
+    <t>PRJ181_W11_2025</t>
+  </si>
+  <si>
     <t>PRJ108_W23_2025</t>
   </si>
   <si>
-    <t>PRJ191_W20_2025</t>
-  </si>
-  <si>
     <t>PRJ173_W23_2025</t>
   </si>
   <si>
@@ -995,9 +1001,6 @@
     <t>PRJ110_W22_2025</t>
   </si>
   <si>
-    <t>PRJ189_W13_2025</t>
-  </si>
-  <si>
     <t>PRJ164_W14_2025</t>
   </si>
   <si>
@@ -1037,7 +1040,10 @@
     <t>PRJ191_W17_2025</t>
   </si>
   <si>
-    <t>PRJ105_W15_2025</t>
+    <t>PRJ163_W18_2025</t>
+  </si>
+  <si>
+    <t>PRJ122_W18_2025</t>
   </si>
   <si>
     <t>PRJ111_W15_2025</t>
@@ -1052,6 +1058,9 @@
     <t>PRJ188_W20_2025</t>
   </si>
   <si>
+    <t>PRJ121_W16_2025</t>
+  </si>
+  <si>
     <t>PRJ192_W13_2025</t>
   </si>
   <si>
@@ -1071,9 +1080,6 @@
   </si>
   <si>
     <t>PRJ197_W16_2025</t>
-  </si>
-  <si>
-    <t>PRJ166_W11_2025</t>
   </si>
   <si>
     <t>PRJ189_W22_2025</t>
@@ -1133,14 +1139,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B358"/>
+  <dimension ref="A1:B360"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.25390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.58984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1180,7 +1186,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>7.64</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="6">
@@ -1188,7 +1194,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>2.25</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="7">
@@ -1196,7 +1202,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>6.65</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="8">
@@ -1204,7 +1210,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>6.31</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1218,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>4.89</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="10">
@@ -1220,7 +1226,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>11.8</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="11">
@@ -1228,7 +1234,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>5.76</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="12">
@@ -1236,7 +1242,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>8.65</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="13">
@@ -1244,7 +1250,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>4.22</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="14">
@@ -1252,7 +1258,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>8.09</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="15">
@@ -1260,7 +1266,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>3.4</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="16">
@@ -1268,7 +1274,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>2.35</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="17">
@@ -1276,7 +1282,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>7.44</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="18">
@@ -1284,7 +1290,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>2.52</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="19">
@@ -1292,7 +1298,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>8.42</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="20">
@@ -1300,7 +1306,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>8.73</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="21">
@@ -1308,7 +1314,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>8.44</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="22">
@@ -1316,7 +1322,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>6.49</v>
+        <v>12.629999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1324,7 +1330,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>3.04</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="24">
@@ -1332,7 +1338,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>7.86</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="25">
@@ -1340,7 +1346,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>2.17</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="26">
@@ -1348,7 +1354,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>3.89</v>
+        <v>9.45</v>
       </c>
     </row>
     <row r="27">
@@ -1356,7 +1362,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>3.29</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="28">
@@ -1364,7 +1370,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>6.52</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="29">
@@ -1372,7 +1378,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>9.45</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="30">
@@ -1380,7 +1386,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>9.08</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="31">
@@ -1388,7 +1394,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>2.13</v>
+        <v>24.89</v>
       </c>
     </row>
     <row r="32">
@@ -1396,7 +1402,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n" s="0">
-        <v>6.95</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="33">
@@ -1404,7 +1410,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>9.25</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="34">
@@ -1412,7 +1418,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>21.96</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="35">
@@ -1420,7 +1426,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n" s="0">
-        <v>3.63</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="36">
@@ -1428,7 +1434,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n" s="0">
-        <v>1.63</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="37">
@@ -1436,7 +1442,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n" s="0">
-        <v>2.95</v>
+        <v>13.35</v>
       </c>
     </row>
     <row r="38">
@@ -1444,7 +1450,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n" s="0">
-        <v>7.54</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="39">
@@ -1452,7 +1458,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n" s="0">
-        <v>2.6</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="40">
@@ -1460,7 +1466,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="n" s="0">
-        <v>13.35</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="41">
@@ -1468,7 +1474,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n" s="0">
-        <v>2.79</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="42">
@@ -1476,7 +1482,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n" s="0">
-        <v>7.24</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="43">
@@ -1484,7 +1490,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="n" s="0">
-        <v>8.09</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="44">
@@ -1492,7 +1498,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n" s="0">
-        <v>5.06</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="45">
@@ -1500,7 +1506,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="n" s="0">
-        <v>5.9</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="46">
@@ -1508,7 +1514,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n" s="0">
-        <v>6.03</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="47">
@@ -1516,7 +1522,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n" s="0">
-        <v>8.98</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="48">
@@ -1524,7 +1530,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="n" s="0">
-        <v>15.64</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="49">
@@ -1532,7 +1538,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="n" s="0">
-        <v>9.41</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="50">
@@ -1540,7 +1546,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="n" s="0">
-        <v>3.74</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="51">
@@ -1548,7 +1554,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n" s="0">
-        <v>8.44</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="52">
@@ -1556,7 +1562,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n" s="0">
-        <v>2.94</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="53">
@@ -1564,7 +1570,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n" s="0">
-        <v>8.26</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="54">
@@ -1572,7 +1578,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n" s="0">
-        <v>3.86</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="55">
@@ -1580,7 +1586,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="n" s="0">
-        <v>5.28</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="56">
@@ -1588,7 +1594,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="n" s="0">
-        <v>2.52</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="57">
@@ -1596,7 +1602,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="n" s="0">
-        <v>3.85</v>
+        <v>8.49</v>
       </c>
     </row>
     <row r="58">
@@ -1604,7 +1610,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="n" s="0">
-        <v>6.27</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="59">
@@ -1612,7 +1618,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="n" s="0">
-        <v>3.65</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="60">
@@ -1620,7 +1626,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="n" s="0">
-        <v>4.88</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="61">
@@ -1628,7 +1634,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n" s="0">
-        <v>1.0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="62">
@@ -1636,7 +1642,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n" s="0">
-        <v>8.49</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="63">
@@ -1644,7 +1650,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="n" s="0">
-        <v>4.44</v>
+        <v>13.83</v>
       </c>
     </row>
     <row r="64">
@@ -1652,7 +1658,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="n" s="0">
-        <v>6.74</v>
+        <v>9.39</v>
       </c>
     </row>
     <row r="65">
@@ -1660,7 +1666,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n" s="0">
-        <v>2.2</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="66">
@@ -1668,7 +1674,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n" s="0">
-        <v>7.93</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="67">
@@ -1676,7 +1682,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="n" s="0">
-        <v>1.5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="68">
@@ -1684,7 +1690,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="n" s="0">
-        <v>4.7</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="69">
@@ -1692,7 +1698,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n" s="0">
-        <v>9.39</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="70">
@@ -1700,7 +1706,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="n" s="0">
-        <v>8.77</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="71">
@@ -1708,7 +1714,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="n" s="0">
-        <v>13.02</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="72">
@@ -1716,7 +1722,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n" s="0">
-        <v>6.4</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="73">
@@ -1724,7 +1730,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="n" s="0">
-        <v>5.58</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="74">
@@ -1732,7 +1738,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n" s="0">
-        <v>4.53</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="75">
@@ -1740,7 +1746,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="n" s="0">
-        <v>1.15</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="76">
@@ -1748,7 +1754,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n" s="0">
-        <v>3.79</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="77">
@@ -1756,7 +1762,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="n" s="0">
-        <v>5.01</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="78">
@@ -1764,7 +1770,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n" s="0">
-        <v>8.43</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="79">
@@ -1772,7 +1778,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="n" s="0">
-        <v>4.31</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="80">
@@ -1780,7 +1786,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n" s="0">
-        <v>3.33</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="81">
@@ -1788,7 +1794,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="n" s="0">
-        <v>7.22</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="82">
@@ -1796,7 +1802,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="n" s="0">
-        <v>3.94</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="83">
@@ -1804,7 +1810,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="n" s="0">
-        <v>4.3</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="84">
@@ -1812,7 +1818,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="n" s="0">
-        <v>8.71</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="85">
@@ -1820,7 +1826,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="n" s="0">
-        <v>1.52</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="86">
@@ -1828,7 +1834,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="n" s="0">
-        <v>4.45</v>
+        <v>9.88</v>
       </c>
     </row>
     <row r="87">
@@ -1836,7 +1842,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="n" s="0">
-        <v>3.37</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="88">
@@ -1844,7 +1850,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="n" s="0">
-        <v>3.86</v>
+        <v>14.48</v>
       </c>
     </row>
     <row r="89">
@@ -1852,7 +1858,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="n" s="0">
-        <v>3.44</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="90">
@@ -1860,7 +1866,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="n" s="0">
-        <v>7.89</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="91">
@@ -1868,7 +1874,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="n" s="0">
-        <v>9.8</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="92">
@@ -1876,7 +1882,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="n" s="0">
-        <v>9.88</v>
+        <v>9.64</v>
       </c>
     </row>
     <row r="93">
@@ -1884,7 +1890,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="n" s="0">
-        <v>7.73</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="94">
@@ -1892,7 +1898,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="n" s="0">
-        <v>7.85</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="95">
@@ -1900,7 +1906,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="n" s="0">
-        <v>8.41</v>
+        <v>8.78</v>
       </c>
     </row>
     <row r="96">
@@ -1908,7 +1914,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="n" s="0">
-        <v>7.87</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="97">
@@ -1916,7 +1922,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="n" s="0">
-        <v>14.54</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="98">
@@ -1924,7 +1930,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="n" s="0">
-        <v>4.85</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="99">
@@ -1932,7 +1938,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="n" s="0">
-        <v>1.02</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="100">
@@ -1940,7 +1946,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="n" s="0">
-        <v>9.64</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="101">
@@ -1948,7 +1954,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="n" s="0">
-        <v>7.88</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="102">
@@ -1956,7 +1962,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="n" s="0">
-        <v>8.78</v>
+        <v>9.71</v>
       </c>
     </row>
     <row r="103">
@@ -1964,7 +1970,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="n" s="0">
-        <v>4.97</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="104">
@@ -1972,7 +1978,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="n" s="0">
-        <v>8.28</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="105">
@@ -1980,7 +1986,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="n" s="0">
-        <v>13.17</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="106">
@@ -1988,7 +1994,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="n" s="0">
-        <v>10.04</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="107">
@@ -1996,7 +2002,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="n" s="0">
-        <v>2.61</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="108">
@@ -2004,7 +2010,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="n" s="0">
-        <v>5.12</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="109">
@@ -2012,7 +2018,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="n" s="0">
-        <v>4.93</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="110">
@@ -2020,7 +2026,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="n" s="0">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="111">
@@ -2028,7 +2034,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="n" s="0">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="112">
@@ -2036,7 +2042,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="n" s="0">
-        <v>9.71</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="113">
@@ -2044,7 +2050,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="n" s="0">
-        <v>3.9</v>
+        <v>9.29</v>
       </c>
     </row>
     <row r="114">
@@ -2052,7 +2058,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="n" s="0">
-        <v>6.34</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="115">
@@ -2060,7 +2066,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="n" s="0">
-        <v>11.32</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="116">
@@ -2068,7 +2074,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="n" s="0">
-        <v>1.49</v>
+        <v>9.13</v>
       </c>
     </row>
     <row r="117">
@@ -2076,7 +2082,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="n" s="0">
-        <v>8.4</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="118">
@@ -2084,7 +2090,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="n" s="0">
-        <v>1.26</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="119">
@@ -2092,7 +2098,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="n" s="0">
-        <v>12.34</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="120">
@@ -2100,7 +2106,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="n" s="0">
-        <v>1.01</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="121">
@@ -2108,7 +2114,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="n" s="0">
-        <v>5.09</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="122">
@@ -2116,7 +2122,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="n" s="0">
-        <v>9.13</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="123">
@@ -2124,7 +2130,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="n" s="0">
-        <v>7.1</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="124">
@@ -2132,7 +2138,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="n" s="0">
-        <v>2.51</v>
+        <v>9.47</v>
       </c>
     </row>
     <row r="125">
@@ -2140,7 +2146,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="n" s="0">
-        <v>7.32</v>
+        <v>10.45</v>
       </c>
     </row>
     <row r="126">
@@ -2148,7 +2154,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="n" s="0">
-        <v>3.0</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="127">
@@ -2156,7 +2162,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="n" s="0">
-        <v>2.28</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="128">
@@ -2164,7 +2170,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="n" s="0">
-        <v>6.88</v>
+        <v>8.71</v>
       </c>
     </row>
     <row r="129">
@@ -2172,7 +2178,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="n" s="0">
-        <v>5.51</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="130">
@@ -2180,7 +2186,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="n" s="0">
-        <v>6.74</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="131">
@@ -2188,7 +2194,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="n" s="0">
-        <v>9.47</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="132">
@@ -2196,7 +2202,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="n" s="0">
-        <v>10.45</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="133">
@@ -2204,7 +2210,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="n" s="0">
-        <v>2.78</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="134">
@@ -2212,7 +2218,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="n" s="0">
-        <v>3.34</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="135">
@@ -2220,7 +2226,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="n" s="0">
-        <v>7.71</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="136">
@@ -2228,7 +2234,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="n" s="0">
-        <v>1.39</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="137">
@@ -2236,7 +2242,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="n" s="0">
-        <v>3.76</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="138">
@@ -2244,7 +2250,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="n" s="0">
-        <v>1.56</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="139">
@@ -2252,7 +2258,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="n" s="0">
-        <v>3.95</v>
+        <v>9.46</v>
       </c>
     </row>
     <row r="140">
@@ -2260,7 +2266,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="n" s="0">
-        <v>8.6</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="141">
@@ -2268,7 +2274,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="n" s="0">
-        <v>4.87</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="142">
@@ -2276,7 +2282,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="n" s="0">
-        <v>9.850000000000001</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="143">
@@ -2284,7 +2290,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="n" s="0">
-        <v>6.37</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="144">
@@ -2292,7 +2298,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="n" s="0">
-        <v>9.46</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="145">
@@ -2300,7 +2306,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="n" s="0">
-        <v>1.93</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="146">
@@ -2308,7 +2314,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="n" s="0">
-        <v>7.46</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="147">
@@ -2316,7 +2322,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="n" s="0">
-        <v>4.11</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="148">
@@ -2324,7 +2330,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="n" s="0">
-        <v>4.51</v>
+        <v>9.03</v>
       </c>
     </row>
     <row r="149">
@@ -2332,7 +2338,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="n" s="0">
-        <v>4.04</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="150">
@@ -2340,7 +2346,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="n" s="0">
-        <v>9.6</v>
+        <v>8.54</v>
       </c>
     </row>
     <row r="151">
@@ -2348,7 +2354,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="n" s="0">
-        <v>5.45</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="152">
@@ -2356,7 +2362,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="n" s="0">
-        <v>1.32</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="153">
@@ -2364,7 +2370,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="n" s="0">
-        <v>1.6</v>
+        <v>8.37</v>
       </c>
     </row>
     <row r="154">
@@ -2372,7 +2378,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="n" s="0">
-        <v>9.03</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="155">
@@ -2380,7 +2386,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="n" s="0">
-        <v>8.54</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="156">
@@ -2388,7 +2394,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="n" s="0">
-        <v>4.03</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="157">
@@ -2396,7 +2402,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="n" s="0">
-        <v>8.37</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="158">
@@ -2404,7 +2410,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="n" s="0">
-        <v>9.2</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="159">
@@ -2412,7 +2418,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="n" s="0">
-        <v>2.93</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="160">
@@ -2420,7 +2426,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="n" s="0">
-        <v>3.68</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="161">
@@ -2428,7 +2434,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="n" s="0">
-        <v>11.36</v>
+        <v>9.71</v>
       </c>
     </row>
     <row r="162">
@@ -2436,7 +2442,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="n" s="0">
-        <v>9.71</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="163">
@@ -2444,7 +2450,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="n" s="0">
-        <v>5.29</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="164">
@@ -2452,7 +2458,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="n" s="0">
-        <v>6.34</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="165">
@@ -2468,7 +2474,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="n" s="0">
-        <v>3.06</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="167">
@@ -2476,7 +2482,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="n" s="0">
-        <v>4.6</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="168">
@@ -2484,7 +2490,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="n" s="0">
-        <v>3.36</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="169">
@@ -2492,7 +2498,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="n" s="0">
-        <v>8.3</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="170">
@@ -2500,7 +2506,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="n" s="0">
-        <v>2.38</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="171">
@@ -2508,7 +2514,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="n" s="0">
-        <v>3.89</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="172">
@@ -2516,7 +2522,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="n" s="0">
-        <v>1.59</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="173">
@@ -2524,7 +2530,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="n" s="0">
-        <v>1.05</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="174">
@@ -2532,7 +2538,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="n" s="0">
-        <v>5.0</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="175">
@@ -2540,7 +2546,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="n" s="0">
-        <v>4.0</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="176">
@@ -2548,7 +2554,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="n" s="0">
-        <v>5.72</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="177">
@@ -2556,7 +2562,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="n" s="0">
-        <v>8.93</v>
+        <v>7.71</v>
       </c>
     </row>
     <row r="178">
@@ -2564,7 +2570,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="n" s="0">
-        <v>4.55</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="179">
@@ -2572,7 +2578,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="n" s="0">
-        <v>6.4</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="180">
@@ -2580,7 +2586,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="n" s="0">
-        <v>6.4</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="181">
@@ -2588,7 +2594,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="n" s="0">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="182">
@@ -2596,7 +2602,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="n" s="0">
-        <v>3.05</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="183">
@@ -2604,7 +2610,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="n" s="0">
-        <v>1.42</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="184">
@@ -2612,7 +2618,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="n" s="0">
-        <v>1.91</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="185">
@@ -2620,7 +2626,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="n" s="0">
-        <v>5.9</v>
+        <v>9.88</v>
       </c>
     </row>
     <row r="186">
@@ -2628,7 +2634,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="n" s="0">
-        <v>1.75</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="187">
@@ -2636,7 +2642,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="n" s="0">
-        <v>1.09</v>
+        <v>8.39</v>
       </c>
     </row>
     <row r="188">
@@ -2644,7 +2650,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="n" s="0">
-        <v>13.8</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="189">
@@ -2652,7 +2658,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="n" s="0">
-        <v>9.88</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="190">
@@ -2660,7 +2666,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="n" s="0">
-        <v>6.0</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="191">
@@ -2668,7 +2674,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="n" s="0">
-        <v>8.39</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="192">
@@ -2676,7 +2682,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="n" s="0">
-        <v>3.08</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="193">
@@ -2684,7 +2690,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="n" s="0">
-        <v>4.77</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="194">
@@ -2692,7 +2698,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="n" s="0">
-        <v>8.52</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="195">
@@ -2700,7 +2706,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="n" s="0">
-        <v>5.52</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="196">
@@ -2708,7 +2714,7 @@
         <v>196</v>
       </c>
       <c r="B196" t="n" s="0">
-        <v>8.19</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="197">
@@ -2716,7 +2722,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="n" s="0">
-        <v>3.88</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="198">
@@ -2724,7 +2730,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="n" s="0">
-        <v>3.19</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="199">
@@ -2732,7 +2738,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="n" s="0">
-        <v>1.16</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="200">
@@ -2740,7 +2746,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="n" s="0">
-        <v>2.97</v>
+        <v>8.05</v>
       </c>
     </row>
     <row r="201">
@@ -2748,7 +2754,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="n" s="0">
-        <v>1.4</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="202">
@@ -2756,7 +2762,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="n" s="0">
-        <v>3.09</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="203">
@@ -2764,7 +2770,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="n" s="0">
-        <v>8.05</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="204">
@@ -2772,7 +2778,7 @@
         <v>204</v>
       </c>
       <c r="B204" t="n" s="0">
-        <v>4.87</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="205">
@@ -2780,7 +2786,7 @@
         <v>205</v>
       </c>
       <c r="B205" t="n" s="0">
-        <v>8.19</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="206">
@@ -2788,7 +2794,7 @@
         <v>206</v>
       </c>
       <c r="B206" t="n" s="0">
-        <v>1.09</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="207">
@@ -2796,7 +2802,7 @@
         <v>207</v>
       </c>
       <c r="B207" t="n" s="0">
-        <v>5.58</v>
+        <v>9.15</v>
       </c>
     </row>
     <row r="208">
@@ -2804,7 +2810,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="n" s="0">
-        <v>6.36</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="209">
@@ -2812,7 +2818,7 @@
         <v>209</v>
       </c>
       <c r="B209" t="n" s="0">
-        <v>1.89</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="210">
@@ -2820,7 +2826,7 @@
         <v>210</v>
       </c>
       <c r="B210" t="n" s="0">
-        <v>9.15</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="211">
@@ -2828,7 +2834,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="n" s="0">
-        <v>4.42</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="212">
@@ -2836,7 +2842,7 @@
         <v>212</v>
       </c>
       <c r="B212" t="n" s="0">
-        <v>8.56</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="213">
@@ -2844,7 +2850,7 @@
         <v>213</v>
       </c>
       <c r="B213" t="n" s="0">
-        <v>2.72</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="214">
@@ -2852,7 +2858,7 @@
         <v>214</v>
       </c>
       <c r="B214" t="n" s="0">
-        <v>5.63</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="215">
@@ -2860,7 +2866,7 @@
         <v>215</v>
       </c>
       <c r="B215" t="n" s="0">
-        <v>2.08</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="216">
@@ -2868,7 +2874,7 @@
         <v>216</v>
       </c>
       <c r="B216" t="n" s="0">
-        <v>2.22</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="217">
@@ -2876,7 +2882,7 @@
         <v>217</v>
       </c>
       <c r="B217" t="n" s="0">
-        <v>11.350000000000001</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="218">
@@ -2884,7 +2890,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="n" s="0">
-        <v>1.57</v>
+        <v>8.04</v>
       </c>
     </row>
     <row r="219">
@@ -2892,7 +2898,7 @@
         <v>219</v>
       </c>
       <c r="B219" t="n" s="0">
-        <v>2.58</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="220">
@@ -2900,7 +2906,7 @@
         <v>220</v>
       </c>
       <c r="B220" t="n" s="0">
-        <v>3.16</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="221">
@@ -2908,7 +2914,7 @@
         <v>221</v>
       </c>
       <c r="B221" t="n" s="0">
-        <v>5.28</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="222">
@@ -2916,7 +2922,7 @@
         <v>222</v>
       </c>
       <c r="B222" t="n" s="0">
-        <v>6.18</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="223">
@@ -2924,7 +2930,7 @@
         <v>223</v>
       </c>
       <c r="B223" t="n" s="0">
-        <v>7.74</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="224">
@@ -2932,7 +2938,7 @@
         <v>224</v>
       </c>
       <c r="B224" t="n" s="0">
-        <v>8.91</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="225">
@@ -3004,7 +3010,7 @@
         <v>233</v>
       </c>
       <c r="B233" t="n" s="0">
-        <v>2.8</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="234">
@@ -3012,7 +3018,7 @@
         <v>234</v>
       </c>
       <c r="B234" t="n" s="0">
-        <v>7.67</v>
+        <v>6.6899999999999995</v>
       </c>
     </row>
     <row r="235">
@@ -3020,7 +3026,7 @@
         <v>235</v>
       </c>
       <c r="B235" t="n" s="0">
-        <v>2.78</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="236">
@@ -3028,7 +3034,7 @@
         <v>236</v>
       </c>
       <c r="B236" t="n" s="0">
-        <v>6.99</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="237">
@@ -3036,7 +3042,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="n" s="0">
-        <v>1.87</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="238">
@@ -3044,7 +3050,7 @@
         <v>238</v>
       </c>
       <c r="B238" t="n" s="0">
-        <v>4.6</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="239">
@@ -3052,7 +3058,7 @@
         <v>239</v>
       </c>
       <c r="B239" t="n" s="0">
-        <v>10.0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="240">
@@ -3060,7 +3066,7 @@
         <v>240</v>
       </c>
       <c r="B240" t="n" s="0">
-        <v>8.77</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="241">
@@ -3068,7 +3074,7 @@
         <v>241</v>
       </c>
       <c r="B241" t="n" s="0">
-        <v>3.03</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="242">
@@ -3076,7 +3082,7 @@
         <v>242</v>
       </c>
       <c r="B242" t="n" s="0">
-        <v>6.66</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="243">
@@ -3084,7 +3090,7 @@
         <v>243</v>
       </c>
       <c r="B243" t="n" s="0">
-        <v>8.45</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="244">
@@ -3092,7 +3098,7 @@
         <v>244</v>
       </c>
       <c r="B244" t="n" s="0">
-        <v>5.19</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="245">
@@ -3100,7 +3106,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="n" s="0">
-        <v>9.33</v>
+        <v>8.45</v>
       </c>
     </row>
     <row r="246">
@@ -3108,7 +3114,7 @@
         <v>246</v>
       </c>
       <c r="B246" t="n" s="0">
-        <v>1.15</v>
+        <v>9.05</v>
       </c>
     </row>
     <row r="247">
@@ -3116,7 +3122,7 @@
         <v>247</v>
       </c>
       <c r="B247" t="n" s="0">
-        <v>7.52</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="248">
@@ -3124,7 +3130,7 @@
         <v>248</v>
       </c>
       <c r="B248" t="n" s="0">
-        <v>2.31</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="249">
@@ -3132,7 +3138,7 @@
         <v>249</v>
       </c>
       <c r="B249" t="n" s="0">
-        <v>15.55</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="250">
@@ -3140,7 +3146,7 @@
         <v>250</v>
       </c>
       <c r="B250" t="n" s="0">
-        <v>3.58</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="251">
@@ -3148,7 +3154,7 @@
         <v>251</v>
       </c>
       <c r="B251" t="n" s="0">
-        <v>5.84</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="252">
@@ -3156,7 +3162,7 @@
         <v>252</v>
       </c>
       <c r="B252" t="n" s="0">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="253">
@@ -3164,7 +3170,7 @@
         <v>253</v>
       </c>
       <c r="B253" t="n" s="0">
-        <v>6.4</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="254">
@@ -3172,7 +3178,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="n" s="0">
-        <v>9.34</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="255">
@@ -3180,7 +3186,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="n" s="0">
-        <v>7.43</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="256">
@@ -3188,7 +3194,7 @@
         <v>256</v>
       </c>
       <c r="B256" t="n" s="0">
-        <v>8.76</v>
+        <v>9.7</v>
       </c>
     </row>
     <row r="257">
@@ -3196,7 +3202,7 @@
         <v>257</v>
       </c>
       <c r="B257" t="n" s="0">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="258">
@@ -3204,7 +3210,7 @@
         <v>258</v>
       </c>
       <c r="B258" t="n" s="0">
-        <v>7.88</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="259">
@@ -3212,7 +3218,7 @@
         <v>259</v>
       </c>
       <c r="B259" t="n" s="0">
-        <v>8.08</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="260">
@@ -3220,7 +3226,7 @@
         <v>260</v>
       </c>
       <c r="B260" t="n" s="0">
-        <v>8.44</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="261">
@@ -3228,7 +3234,7 @@
         <v>261</v>
       </c>
       <c r="B261" t="n" s="0">
-        <v>4.44</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="262">
@@ -3236,7 +3242,7 @@
         <v>262</v>
       </c>
       <c r="B262" t="n" s="0">
-        <v>8.5</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="263">
@@ -3244,7 +3250,7 @@
         <v>263</v>
       </c>
       <c r="B263" t="n" s="0">
-        <v>4.15</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="264">
@@ -3252,7 +3258,7 @@
         <v>264</v>
       </c>
       <c r="B264" t="n" s="0">
-        <v>8.73</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="265">
@@ -3260,7 +3266,7 @@
         <v>265</v>
       </c>
       <c r="B265" t="n" s="0">
-        <v>9.719999999999999</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="266">
@@ -3268,7 +3274,7 @@
         <v>266</v>
       </c>
       <c r="B266" t="n" s="0">
-        <v>3.47</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="267">
@@ -3276,7 +3282,7 @@
         <v>267</v>
       </c>
       <c r="B267" t="n" s="0">
-        <v>1.18</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="268">
@@ -3284,7 +3290,7 @@
         <v>268</v>
       </c>
       <c r="B268" t="n" s="0">
-        <v>1.11</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="269">
@@ -3292,7 +3298,7 @@
         <v>269</v>
       </c>
       <c r="B269" t="n" s="0">
-        <v>2.48</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="270">
@@ -3300,7 +3306,7 @@
         <v>270</v>
       </c>
       <c r="B270" t="n" s="0">
-        <v>10.91</v>
+        <v>9.719999999999999</v>
       </c>
     </row>
     <row r="271">
@@ -3308,7 +3314,7 @@
         <v>271</v>
       </c>
       <c r="B271" t="n" s="0">
-        <v>1.87</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="272">
@@ -3316,7 +3322,7 @@
         <v>272</v>
       </c>
       <c r="B272" t="n" s="0">
-        <v>9.66</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="273">
@@ -3324,7 +3330,7 @@
         <v>273</v>
       </c>
       <c r="B273" t="n" s="0">
-        <v>4.24</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="274">
@@ -3332,7 +3338,7 @@
         <v>274</v>
       </c>
       <c r="B274" t="n" s="0">
-        <v>9.35</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="275">
@@ -3340,7 +3346,7 @@
         <v>275</v>
       </c>
       <c r="B275" t="n" s="0">
-        <v>7.05</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="276">
@@ -3348,7 +3354,7 @@
         <v>276</v>
       </c>
       <c r="B276" t="n" s="0">
-        <v>1.06</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="277">
@@ -3356,7 +3362,7 @@
         <v>277</v>
       </c>
       <c r="B277" t="n" s="0">
-        <v>3.73</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="278">
@@ -3364,7 +3370,7 @@
         <v>278</v>
       </c>
       <c r="B278" t="n" s="0">
-        <v>15.879999999999997</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="279">
@@ -3372,7 +3378,7 @@
         <v>279</v>
       </c>
       <c r="B279" t="n" s="0">
-        <v>5.18</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="280">
@@ -3380,7 +3386,7 @@
         <v>280</v>
       </c>
       <c r="B280" t="n" s="0">
-        <v>5.11</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="281">
@@ -3388,7 +3394,7 @@
         <v>281</v>
       </c>
       <c r="B281" t="n" s="0">
-        <v>6.23</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="282">
@@ -3396,7 +3402,7 @@
         <v>282</v>
       </c>
       <c r="B282" t="n" s="0">
-        <v>8.85</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="283">
@@ -3404,7 +3410,7 @@
         <v>283</v>
       </c>
       <c r="B283" t="n" s="0">
-        <v>1.81</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="284">
@@ -3412,7 +3418,7 @@
         <v>284</v>
       </c>
       <c r="B284" t="n" s="0">
-        <v>7.79</v>
+        <v>15.88</v>
       </c>
     </row>
     <row r="285">
@@ -3420,7 +3426,7 @@
         <v>285</v>
       </c>
       <c r="B285" t="n" s="0">
-        <v>3.41</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="286">
@@ -3428,7 +3434,7 @@
         <v>286</v>
       </c>
       <c r="B286" t="n" s="0">
-        <v>7.24</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="287">
@@ -3436,7 +3442,7 @@
         <v>287</v>
       </c>
       <c r="B287" t="n" s="0">
-        <v>2.1</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="288">
@@ -3444,7 +3450,7 @@
         <v>288</v>
       </c>
       <c r="B288" t="n" s="0">
-        <v>6.04</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="289">
@@ -3452,7 +3458,7 @@
         <v>289</v>
       </c>
       <c r="B289" t="n" s="0">
-        <v>6.55</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="290">
@@ -3460,7 +3466,7 @@
         <v>290</v>
       </c>
       <c r="B290" t="n" s="0">
-        <v>2.12</v>
+        <v>11.219999999999999</v>
       </c>
     </row>
     <row r="291">
@@ -3468,7 +3474,7 @@
         <v>291</v>
       </c>
       <c r="B291" t="n" s="0">
-        <v>1.9</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="292">
@@ -3476,7 +3482,7 @@
         <v>292</v>
       </c>
       <c r="B292" t="n" s="0">
-        <v>2.92</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="293">
@@ -3484,7 +3490,7 @@
         <v>293</v>
       </c>
       <c r="B293" t="n" s="0">
-        <v>6.15</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="294">
@@ -3492,7 +3498,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="n" s="0">
-        <v>1.37</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="295">
@@ -3500,7 +3506,7 @@
         <v>295</v>
       </c>
       <c r="B295" t="n" s="0">
-        <v>7.82</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="296">
@@ -3508,7 +3514,7 @@
         <v>296</v>
       </c>
       <c r="B296" t="n" s="0">
-        <v>3.21</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="297">
@@ -3516,7 +3522,7 @@
         <v>297</v>
       </c>
       <c r="B297" t="n" s="0">
-        <v>6.72</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="298">
@@ -3524,7 +3530,7 @@
         <v>298</v>
       </c>
       <c r="B298" t="n" s="0">
-        <v>1.94</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="299">
@@ -3532,7 +3538,7 @@
         <v>299</v>
       </c>
       <c r="B299" t="n" s="0">
-        <v>4.24</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="300">
@@ -3540,7 +3546,7 @@
         <v>300</v>
       </c>
       <c r="B300" t="n" s="0">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="301">
@@ -3548,7 +3554,7 @@
         <v>301</v>
       </c>
       <c r="B301" t="n" s="0">
-        <v>8.28</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="302">
@@ -3556,7 +3562,7 @@
         <v>302</v>
       </c>
       <c r="B302" t="n" s="0">
-        <v>7.2</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="303">
@@ -3564,7 +3570,7 @@
         <v>303</v>
       </c>
       <c r="B303" t="n" s="0">
-        <v>4.67</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="304">
@@ -3572,7 +3578,7 @@
         <v>304</v>
       </c>
       <c r="B304" t="n" s="0">
-        <v>3.32</v>
+        <v>8.28</v>
       </c>
     </row>
     <row r="305">
@@ -3580,7 +3586,7 @@
         <v>305</v>
       </c>
       <c r="B305" t="n" s="0">
-        <v>2.31</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="306">
@@ -3588,7 +3594,7 @@
         <v>306</v>
       </c>
       <c r="B306" t="n" s="0">
-        <v>6.62</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="307">
@@ -3596,7 +3602,7 @@
         <v>307</v>
       </c>
       <c r="B307" t="n" s="0">
-        <v>3.18</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="308">
@@ -3604,7 +3610,7 @@
         <v>308</v>
       </c>
       <c r="B308" t="n" s="0">
-        <v>8.11</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="309">
@@ -3612,7 +3618,7 @@
         <v>309</v>
       </c>
       <c r="B309" t="n" s="0">
-        <v>9.29</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="310">
@@ -3620,7 +3626,7 @@
         <v>310</v>
       </c>
       <c r="B310" t="n" s="0">
-        <v>15.66</v>
+        <v>8.11</v>
       </c>
     </row>
     <row r="311">
@@ -3628,7 +3634,7 @@
         <v>311</v>
       </c>
       <c r="B311" t="n" s="0">
-        <v>6.63</v>
+        <v>9.29</v>
       </c>
     </row>
     <row r="312">
@@ -3636,7 +3642,7 @@
         <v>312</v>
       </c>
       <c r="B312" t="n" s="0">
-        <v>5.16</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="313">
@@ -3644,7 +3650,7 @@
         <v>313</v>
       </c>
       <c r="B313" t="n" s="0">
-        <v>3.04</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="314">
@@ -3652,7 +3658,7 @@
         <v>314</v>
       </c>
       <c r="B314" t="n" s="0">
-        <v>7.3</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="315">
@@ -3660,7 +3666,7 @@
         <v>315</v>
       </c>
       <c r="B315" t="n" s="0">
-        <v>7.86</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="316">
@@ -3668,7 +3674,7 @@
         <v>316</v>
       </c>
       <c r="B316" t="n" s="0">
-        <v>1.48</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="317">
@@ -3676,7 +3682,7 @@
         <v>317</v>
       </c>
       <c r="B317" t="n" s="0">
-        <v>3.32</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="318">
@@ -3684,7 +3690,7 @@
         <v>318</v>
       </c>
       <c r="B318" t="n" s="0">
-        <v>3.43</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="319">
@@ -3692,7 +3698,7 @@
         <v>319</v>
       </c>
       <c r="B319" t="n" s="0">
-        <v>8.58</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="320">
@@ -3700,7 +3706,7 @@
         <v>320</v>
       </c>
       <c r="B320" t="n" s="0">
-        <v>2.88</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="321">
@@ -3708,7 +3714,7 @@
         <v>321</v>
       </c>
       <c r="B321" t="n" s="0">
-        <v>2.58</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="322">
@@ -3716,7 +3722,7 @@
         <v>322</v>
       </c>
       <c r="B322" t="n" s="0">
-        <v>11.09</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="323">
@@ -3724,7 +3730,7 @@
         <v>323</v>
       </c>
       <c r="B323" t="n" s="0">
-        <v>5.97</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="324">
@@ -3732,7 +3738,7 @@
         <v>324</v>
       </c>
       <c r="B324" t="n" s="0">
-        <v>6.35</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="325">
@@ -3740,7 +3746,7 @@
         <v>325</v>
       </c>
       <c r="B325" t="n" s="0">
-        <v>9.36</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="326">
@@ -3748,7 +3754,7 @@
         <v>326</v>
       </c>
       <c r="B326" t="n" s="0">
-        <v>5.03</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="327">
@@ -3756,7 +3762,7 @@
         <v>327</v>
       </c>
       <c r="B327" t="n" s="0">
-        <v>3.58</v>
+        <v>9.36</v>
       </c>
     </row>
     <row r="328">
@@ -3764,7 +3770,7 @@
         <v>328</v>
       </c>
       <c r="B328" t="n" s="0">
-        <v>11.209999999999999</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="329">
@@ -3772,7 +3778,7 @@
         <v>329</v>
       </c>
       <c r="B329" t="n" s="0">
-        <v>1.23</v>
+        <v>11.209999999999999</v>
       </c>
     </row>
     <row r="330">
@@ -3780,7 +3786,7 @@
         <v>330</v>
       </c>
       <c r="B330" t="n" s="0">
-        <v>8.52</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="331">
@@ -3788,7 +3794,7 @@
         <v>331</v>
       </c>
       <c r="B331" t="n" s="0">
-        <v>5.44</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="332">
@@ -3796,7 +3802,7 @@
         <v>332</v>
       </c>
       <c r="B332" t="n" s="0">
-        <v>7.14</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="333">
@@ -3804,7 +3810,7 @@
         <v>333</v>
       </c>
       <c r="B333" t="n" s="0">
-        <v>8.17</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="334">
@@ -3812,7 +3818,7 @@
         <v>334</v>
       </c>
       <c r="B334" t="n" s="0">
-        <v>6.09</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="335">
@@ -3820,7 +3826,7 @@
         <v>335</v>
       </c>
       <c r="B335" t="n" s="0">
-        <v>1.18</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="336">
@@ -3828,7 +3834,7 @@
         <v>336</v>
       </c>
       <c r="B336" t="n" s="0">
-        <v>2.16</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="337">
@@ -3836,7 +3842,7 @@
         <v>337</v>
       </c>
       <c r="B337" t="n" s="0">
-        <v>3.77</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="338">
@@ -3844,7 +3850,7 @@
         <v>338</v>
       </c>
       <c r="B338" t="n" s="0">
-        <v>6.09</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="339">
@@ -3852,7 +3858,7 @@
         <v>339</v>
       </c>
       <c r="B339" t="n" s="0">
-        <v>1.21</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="340">
@@ -3860,7 +3866,7 @@
         <v>340</v>
       </c>
       <c r="B340" t="n" s="0">
-        <v>9.06</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="341">
@@ -3868,7 +3874,7 @@
         <v>341</v>
       </c>
       <c r="B341" t="n" s="0">
-        <v>7.69</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="342">
@@ -3876,7 +3882,7 @@
         <v>342</v>
       </c>
       <c r="B342" t="n" s="0">
-        <v>7.26</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="343">
@@ -3884,7 +3890,7 @@
         <v>343</v>
       </c>
       <c r="B343" t="n" s="0">
-        <v>8.1</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="344">
@@ -3892,7 +3898,7 @@
         <v>344</v>
       </c>
       <c r="B344" t="n" s="0">
-        <v>5.51</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="345">
@@ -3900,7 +3906,7 @@
         <v>345</v>
       </c>
       <c r="B345" t="n" s="0">
-        <v>15.51</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="346">
@@ -3908,7 +3914,7 @@
         <v>346</v>
       </c>
       <c r="B346" t="n" s="0">
-        <v>5.15</v>
+        <v>8.55</v>
       </c>
     </row>
     <row r="347">
@@ -3916,7 +3922,7 @@
         <v>347</v>
       </c>
       <c r="B347" t="n" s="0">
-        <v>6.04</v>
+        <v>15.51</v>
       </c>
     </row>
     <row r="348">
@@ -3924,7 +3930,7 @@
         <v>348</v>
       </c>
       <c r="B348" t="n" s="0">
-        <v>14.05</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="349">
@@ -3932,7 +3938,7 @@
         <v>349</v>
       </c>
       <c r="B349" t="n" s="0">
-        <v>6.67</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="350">
@@ -3940,7 +3946,7 @@
         <v>350</v>
       </c>
       <c r="B350" t="n" s="0">
-        <v>2.38</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="351">
@@ -3948,7 +3954,7 @@
         <v>351</v>
       </c>
       <c r="B351" t="n" s="0">
-        <v>9.43</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="352">
@@ -3956,7 +3962,7 @@
         <v>352</v>
       </c>
       <c r="B352" t="n" s="0">
-        <v>7.72</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="353">
@@ -3964,7 +3970,7 @@
         <v>353</v>
       </c>
       <c r="B353" t="n" s="0">
-        <v>9.4</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="354">
@@ -3972,7 +3978,7 @@
         <v>354</v>
       </c>
       <c r="B354" t="n" s="0">
-        <v>3.41</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="355">
@@ -3980,7 +3986,7 @@
         <v>355</v>
       </c>
       <c r="B355" t="n" s="0">
-        <v>3.5700000000000003</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="356">
@@ -3988,7 +3994,7 @@
         <v>356</v>
       </c>
       <c r="B356" t="n" s="0">
-        <v>9.98</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="357">
@@ -3996,7 +4002,7 @@
         <v>357</v>
       </c>
       <c r="B357" t="n" s="0">
-        <v>4.36</v>
+        <v>3.5700000000000003</v>
       </c>
     </row>
     <row r="358">
@@ -4004,6 +4010,22 @@
         <v>358</v>
       </c>
       <c r="B358" t="n" s="0">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="B359" t="n" s="0">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="B360" t="n" s="0">
         <v>3.65</v>
       </c>
     </row>

--- a/tasks/AnalyticalCase/output/WeeklyEffortPerProject.xlsx
+++ b/tasks/AnalyticalCase/output/WeeklyEffortPerProject.xlsx
@@ -3418,7 +3418,7 @@
         <v>284</v>
       </c>
       <c r="B284" t="n" s="0">
-        <v>15.88</v>
+        <v>15.879999999999997</v>
       </c>
     </row>
     <row r="285">
